--- a/backend/init_data.xlsx
+++ b/backend/init_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239DB3C4-2525-4366-9667-ED23E52BB2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9A5328-0661-4CE4-8094-887D6933C4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Стрологистика " sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/tsement/portland-tsement-50-kg/</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Поликарбонат  4мм Extra 2,1х6 м 0,39 кг/м2,</t>
   </si>
   <si>
-    <t>Печной мир э</t>
-  </si>
-  <si>
     <t>https://irkutsk.pechnoy-mir.ru/catalog/materialy/kirpich/pechnoy_/62664/</t>
   </si>
   <si>
@@ -297,6 +294,12 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Дверь печная</t>
+  </si>
+  <si>
+    <t>Плита</t>
   </si>
 </sst>
 </file>
@@ -685,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -892,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,135 +907,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1043,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,49 +1061,60 @@
     <col min="2" max="2" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
         <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{85B82397-49CA-4B51-8D92-86BE116A304E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,30 +1122,44 @@
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
       <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/backend/init_data.xlsx
+++ b/backend/init_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9A5328-0661-4CE4-8094-887D6933C4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4747C7-FCBB-41BF-B33D-78E137B7530D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Стрологистика " sheetId="1" r:id="rId1"/>
@@ -18,56 +18,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
-  <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/tsement/portland-tsement-50-kg/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Цемент </t>
-  </si>
-  <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/keramzit/keramzit-fraktsiya-10-20-mm_1/</t>
-  </si>
-  <si>
-    <t>керамзит 10/20</t>
-  </si>
-  <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/keramzit/keramzit-fraktsiya-5-10-mm_1/</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
   <si>
     <t>Керамзит 5/10</t>
   </si>
   <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/keramzit/keramzit-v-mkr-fraktsiya-0-5-mm-0-9m3/</t>
-  </si>
-  <si>
-    <t>Керамзит 0/5</t>
-  </si>
-  <si>
     <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/dsp/plita-dsp-zima-16-mm/</t>
   </si>
   <si>
-    <t>Дсп 1,22*2,44 16 мм</t>
-  </si>
-  <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/osb/orientirovano-struzhechnaya-plita-osb-3-6kh2500kh1250-mm-reborn-107/</t>
-  </si>
-  <si>
-    <t>Осб 9 реборн</t>
-  </si>
-  <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/fanera_1/fanera-berezovaya-6-mm/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанера 6 3/4 </t>
-  </si>
-  <si>
     <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/kladochnaya-setka/setka-kladochnaya-0-12kh1-5-m/</t>
   </si>
   <si>
-    <t xml:space="preserve">Сетка пол кирпича </t>
-  </si>
-  <si>
     <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/kladochnaya-setka/setka-kladochnaya-0-18kh1-5-m/</t>
   </si>
   <si>
@@ -86,12 +47,6 @@
     <t>Сетка 1*3*0,15</t>
   </si>
   <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/peskobloki/peskoblok-40-18-8-20-1-palleta-60-sht/</t>
-  </si>
-  <si>
-    <t>П блок 20</t>
-  </si>
-  <si>
     <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/bazalt-minplita/min-plita-teplit-layt-super-pl-27kg-m3-1000kh500kh50-6-plit-3m2-0-15m3-t-u/</t>
   </si>
   <si>
@@ -101,57 +56,12 @@
     <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/bazalt-minplita/min-plita-teplit-blok-standart-pl-45kg-m3-1000kh500kh50-6-plit-3m2-0-15m3-t-u/</t>
   </si>
   <si>
-    <t>Теплит блок стандарт э</t>
-  </si>
-  <si>
     <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/bazalt-minplita/min-plita-p-75-teplit-1000kh500kh50-6-plit-3m2-0-15m3-t-u/</t>
   </si>
   <si>
-    <t xml:space="preserve">Теплит п 75 </t>
-  </si>
-  <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/bazalt-minplita/plity-mineralovatnye-roklayt-6plit-1200kh600kh50-mm-4-32m2-0-216-m3-pte-40-32/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Роклайт </t>
-  </si>
-  <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/steklovata/mat-iz-steklovolokna-neman-m-11-layt-2sht-50kh1200kh6250-15m2-0-75m3-pl-10-5kg-m3/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Неман </t>
-  </si>
-  <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/steklovata/mineralnaya-vata-isover-uteplyaev-tvin-50-mm/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Утепляев </t>
-  </si>
-  <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/steklovata/teplyy-dom-tvin-50-1220-7000-isover-17-1m2-0-85m3-6-36/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изовер твин </t>
-  </si>
-  <si>
     <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/ekstruziya-xps/penopolistirol-penopleks-komfort-50-mm/</t>
   </si>
   <si>
-    <t>Пеномлекс 50 мм</t>
-  </si>
-  <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/ekstruziya-xps/plita-thermit-xps-g4-50kh590kh1190-l-8-sht-0-281-m3/</t>
-  </si>
-  <si>
-    <t>Термит 50 мм</t>
-  </si>
-  <si>
-    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/sotovyy-polikarbonat_1/polikarbonat-4mm-extra-2-1kh6-m-0-39-kg-m2-bel-skotch/</t>
-  </si>
-  <si>
-    <t>Поликарбонат  4мм Extra 2,1х6 м 0,39 кг/м2,</t>
-  </si>
-  <si>
     <t>https://irkutsk.pechnoy-mir.ru/catalog/materialy/kirpich/pechnoy_/62664/</t>
   </si>
   <si>
@@ -272,34 +182,223 @@
     <t xml:space="preserve">Фанера береза 3 2/3 свеза </t>
   </si>
   <si>
-    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/165490003-dver_topochnaya_malaya_steklo_dt_3s</t>
-  </si>
-  <si>
-    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/165490049-plita_710_410_25_ref</t>
-  </si>
-  <si>
-    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/204963117-osp_osb_12_mm_1250kh2500_mm_shlifovannaya_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Осп 9 </t>
-  </si>
-  <si>
-    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/250033208-tsement_50_kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">цемент </t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Link</t>
   </si>
   <si>
-    <t>Дверь печная</t>
-  </si>
-  <si>
-    <t>Плита</t>
+    <t xml:space="preserve">Сетка 0,5 к </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сетка 1,5 к </t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/kladochnaya-setka/setka-kladochnaya-0-38kh1-5-m/</t>
+  </si>
+  <si>
+    <t>Сетка 1*3*0,2</t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/kladochnaya-setka/setka-kladochnaya-1kh3-m-20kh20-10-otkrytyy-kontur/</t>
+  </si>
+  <si>
+    <t>Сетка 1*3*0,1</t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/kladochnaya-setka/setka-kladochnaya-1kh3-m-10kh10-10-otkrytyy-kontur/</t>
+  </si>
+  <si>
+    <t>Керамзит 10/20</t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/keramzit_1/keramzit-fraktsiya-10-20-mm_1/</t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/keramzit_1/keramzit-fraktsiya-5-10-mm_1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теплит 50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теплит 75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пеноплекс 50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пеноплекс 30 </t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/ekstruziya-xps/plity-penopleks-komfort-30kh585kh1185-t-15-13-sht-0-2704-m3-s-16-07-2018/</t>
+  </si>
+  <si>
+    <t>Двп 3,2 1,7*2,75</t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/dvp/dvp-3-4kh1700kh2745-168-lesosibirsk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф. сосна 9 3/4 </t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/fanera_1/fanera-khvoynaya-marki-fsf-nsh-9mm-1220kh2440-sort-3-4-50-u-s/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ф.сосна 6 3/3 бр </t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/fanera_1/fanera-khvoynaya-povyshennoy-vlagostoykosti-fsf-6-5-mm-1220kh2440-3-3-bratsk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф. сосна 12 3/4 </t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/fanera_1/fanera-khvoynaya-marki-fsf-nsh-12-mm-1220kh2440-sort-3-4-50-u-s/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф. сосна 9 3/3 бр </t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/fanera_1/fanera-khvoynaya-povyshennoy-vlagostoykosti-fsf-9-mm-1220kh2440-3-3-bratsk/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф. сосна 15 3/4 </t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/fanera_1/fanera-khvoynaya-marki-fsf-nsh-15-mm-1220kh2440-sort-3-4-50-u-s/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф. сосна 12 3/3 </t>
+  </si>
+  <si>
+    <t>https://xn--80afpacjdwcqkhfi.xn--p1ai/catalog/fanera_1/fanera-khvoynaya-povyshennoy-vlagostoykosti-fsf-12-mm-1220kh2440-3-3-bratsk-42/</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743538-setka_2_0_kladochnaya_1_5_kh_0_48</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743539-setka_2_5_kladochnaya_1_5_kh_0_64</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743536-setka_1_0_kladochnaya_1_5_kh_0_24</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743537-setka_1_5_kladochnaya_1_5_kh_0_38</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743534-setka_1_kh_3_kh_0_15</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743535-setka_1_kh_3_kh_0_20</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743533-setka_1_kh_3_kh_0_10</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/239962051-keramzit_10_20_40_l_mesh</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/240114612-keramzit_0_10_mm_900_l_mkr</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/39635984-uteplitel_teplit_pte_50_3_m_2_tolshchina_50_mm</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743524-uteplitel_teplit_50_3_m2</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743523-uteplitel_teplit_75_3_m2</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/188320861-extrudirovanny_penopolistirol_penoplex_50_mm_4_8526_m2_585kh1185_mm</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743528-extruzionny_penopolisterol_30mm_9_8m2</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743521-osp_9_mm_122_kh_244</t>
+  </si>
+  <si>
+    <t>Дсп 16 1,22*2,44</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743496-dsp_1_83_kh_2_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дсп 16 1,83*2,5 </t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/172370672-plita_dsp_16_mm_1_sort_1830kh2440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф. березовая 3 2/3 </t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/218615479-fanera_berezovaya_fk_3_mm_sort_2_3_1525kh1525_mm_sh2_sveza_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф. березовая 4 3/4 </t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/107911600-fanera_bereza_1525_1525_4_mm_sort_3_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф. березовая 6 3/4 </t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/218615512-fanera_berezovaya_fk_6_mm_sort_3_4_1525kh1525_mm_sh2_sveza_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф. березовая 8 2/4 </t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/200698536-fanera_berezovaya_fk_8_mm_sort_2_4_1525kh1525_mm_sh2_sveza_l</t>
+  </si>
+  <si>
+    <t>Ф. березовая 10 3/4</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/107913976-fanera_bereza_1525_1525_10_mm_sort_2_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ф. березовая 10 4/4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф. березовая 12 2/4 </t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/200699612-fanera_berezovaya_fk_12_mm_sort_2_4_1525kh1525_mm_sh2_sveza_l</t>
+  </si>
+  <si>
+    <t>Ф. березовая 15 3/4</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/218616434-fanera_berezovaya_fk_15_mm_sort_3_4_obr_1525kh1525_mm_sh2_sveza_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ф. березовая 18 3/4 </t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/218616609-fanera_berezovaya_fk_18_mm_sort_3_4_obr_1525kh1525_mm_sh2_sveza_l</t>
+  </si>
+  <si>
+    <t>Ф. березовая 18 4/4</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/200699661-fanera_berezovaya_fk_18_mm_sort_4_4_1525kh1525_mm_sh2_sveza_l</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/189762887-fanera_sosna_fsf_9_mm_1220kh2440_mm_sort_3_4_nsh_usole_l</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743514-fanera_sosna_12_mm_122_kh_244_3_4_usole</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/163473716-fanera_sosna_fsf_9_mm_1220_kh_2440_2_3_bratsk</t>
+  </si>
+  <si>
+    <t>https://www.xn--38-vlcai5ag2d.xn--p1ai/goods/46743516-fanera_sosna_15_mm_122_kh_244_3_4_usole</t>
   </si>
 </sst>
 </file>
@@ -344,9 +443,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -689,7 +797,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,193 +808,189 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{AC2E2064-551A-4D02-BC10-B9742147C0BC}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{ACF03946-6299-4A3A-B5D7-20BB04530FC4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -895,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -907,138 +1011,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1063,42 +1167,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1111,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,42 +1228,258 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>92</v>
+      <c r="A2" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>93</v>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>89</v>
+      <c r="A5" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
